--- a/principal/src/main/resources/Output/Jaclupan_LR-2024.xlsx
+++ b/principal/src/main/resources/Output/Jaclupan_LR-2024.xlsx
@@ -747,7 +747,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -983,7 +983,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1952,7 +1951,7 @@
       <c r="E12" s="27"/>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="97">
+      <c r="B13" t="s" s="0">
         <v>44</v>
       </c>
       <c r="C13" t="s" s="0">
@@ -1966,7 +1965,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="97">
+      <c r="B14" t="s" s="0">
         <v>47</v>
       </c>
       <c r="C14" t="s" s="0">
@@ -1980,7 +1979,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="97">
+      <c r="B15" t="s" s="0">
         <v>47</v>
       </c>
       <c r="C15" t="s" s="0">
@@ -1990,7 +1989,7 @@
         <v>49</v>
       </c>
       <c r="E15" t="n" s="0">
-        <v>3500.0</v>
+        <v>4000.0</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">

--- a/principal/src/main/resources/Output/Jaclupan_LR-2024.xlsx
+++ b/principal/src/main/resources/Output/Jaclupan_LR-2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnayo\Desktop\Capstone Project\princi-pal-backend\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnayo\Desktop\princi-pal-backend-springboot\principal\src\main\resources\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D16409-8425-4CBF-BC7C-A7A75613EC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C4E145-54B2-4625-AE61-F5B1420C7699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Head, Accounting Division Unit</t>
   </si>
@@ -208,6 +208,12 @@
     <t>NELDA D. NAYON, Ed.D.</t>
   </si>
   <si>
+    <t>John Hammock</t>
+  </si>
+  <si>
+    <t>John Davello Verture</t>
+  </si>
+  <si>
     <t>11/11/2023</t>
   </si>
   <si>
@@ -234,7 +240,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,11 +301,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="18"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -454,6 +455,40 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Century Gothic"/>
+      <sz val="20.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Century Gothic"/>
+      <sz val="20.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Century Gothic"/>
+      <sz val="20.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Century Gothic"/>
+      <sz val="20.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Century Gothic"/>
+      <sz val="20.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Century Gothic"/>
+      <sz val="20.0"/>
+      <color indexed="8"/>
     </font>
   </fonts>
   <fills count="4">
@@ -476,7 +511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -740,6 +775,120 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -747,7 +896,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -809,122 +958,167 @@
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="39" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyNumberFormat="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="30" xfId="0" applyFont="true" applyAlignment="1" applyBorder="true">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -932,56 +1126,23 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1835,8 +1996,8 @@
   </sheetPr>
   <dimension ref="B1:H208"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="53" zoomScaleNormal="53" zoomScaleSheetLayoutView="53" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A62" zoomScale="53" zoomScaleNormal="53" zoomScaleSheetLayoutView="53" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1854,594 +2015,592 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B3" s="33"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="2:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="37" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="34" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="37"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" spans="2:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B6" s="72"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="54"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="47"/>
     </row>
     <row r="7" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="63" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="46"/>
+      <c r="F7" s="43"/>
     </row>
     <row r="8" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="55" t="s">
+      <c r="C8" s="51"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="48" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="74" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="29"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="88" t="s">
+      <c r="E10" s="72" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="77"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="89"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="73"/>
     </row>
     <row r="12" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="28"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="D13" t="s" s="0">
+      <c r="B13" t="s" s="89">
         <v>46</v>
       </c>
-      <c r="E13" t="n" s="0">
+      <c r="C13" t="s" s="90">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s" s="57">
+        <v>48</v>
+      </c>
+      <c r="E13" t="n" s="26">
         <v>3124.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s" s="0">
+      <c r="B14" t="s" s="89">
         <v>49</v>
       </c>
-      <c r="E14" t="n" s="0">
+      <c r="C14" t="s" s="90">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s" s="57">
+        <v>51</v>
+      </c>
+      <c r="E14" t="n" s="26">
         <v>2500.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s" s="0">
+      <c r="B15" t="s" s="89">
         <v>49</v>
       </c>
-      <c r="E15" t="n" s="0">
-        <v>4000.0</v>
+      <c r="C15" t="s" s="90">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s" s="57">
+        <v>51</v>
+      </c>
+      <c r="E15" t="n" s="26">
+        <v>5000.0</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="25"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="49"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="65"/>
     </row>
     <row r="17" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="25"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="49"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="65"/>
     </row>
     <row r="18" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="25"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="49"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="65"/>
     </row>
     <row r="19" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="25"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="49"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="65"/>
     </row>
     <row r="20" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="25"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="49"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
     </row>
     <row r="21" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="25"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="49"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="65"/>
     </row>
     <row r="22" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="25"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="49"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="65"/>
     </row>
     <row r="23" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="25"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="49"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="65"/>
     </row>
     <row r="24" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="25"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="49"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="65"/>
     </row>
     <row r="25" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="25"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="49"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="65"/>
     </row>
     <row r="26" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="25"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="49"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="65"/>
     </row>
     <row r="27" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="25"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="49"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="65"/>
     </row>
     <row r="28" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="25"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="49"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="65"/>
     </row>
     <row r="29" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="25"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="49"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="65"/>
     </row>
     <row r="30" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="25"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="49"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="65"/>
     </row>
     <row r="31" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="25"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="49"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="65"/>
     </row>
     <row r="32" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="25"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="49"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="65"/>
     </row>
     <row r="33" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B33" s="25"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="49"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="65"/>
     </row>
     <row r="34" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="25"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="49"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="65"/>
     </row>
     <row r="35" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="25"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="49"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="65"/>
     </row>
     <row r="36" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B36" s="25"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="49"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="65"/>
     </row>
     <row r="37" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="25"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="49"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="65"/>
     </row>
     <row r="38" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="25"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="49"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="65"/>
     </row>
     <row r="39" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="25"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="49"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="65"/>
     </row>
     <row r="40" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B40" s="25"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="49"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="65"/>
     </row>
     <row r="41" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B41" s="25"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="49"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="65"/>
     </row>
     <row r="42" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="25"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="49"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="65"/>
     </row>
     <row r="43" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="25"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="49"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="65"/>
     </row>
     <row r="44" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B44" s="25"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="49"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="65"/>
     </row>
     <row r="45" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B45" s="25"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="49"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="65"/>
     </row>
     <row r="46" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B46" s="25"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="49"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="65"/>
     </row>
     <row r="47" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B47" s="25"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="49"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="65"/>
     </row>
     <row r="48" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B48" s="25"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="49"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="65"/>
     </row>
     <row r="49" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B49" s="25"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="49"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="65"/>
     </row>
     <row r="50" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B50" s="25"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="49"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="65"/>
     </row>
     <row r="51" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B51" s="25"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="49"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="65"/>
     </row>
     <row r="52" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B52" s="25"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="49"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="65"/>
     </row>
     <row r="53" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B53" s="25"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="49"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="65"/>
     </row>
     <row r="54" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B54" s="25"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="49"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="65"/>
     </row>
     <row r="55" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B55" s="25"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="49"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="65"/>
     </row>
     <row r="56" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B56" s="25"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="49"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="65"/>
     </row>
     <row r="57" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B57" s="25"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="49"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="65"/>
     </row>
     <row r="58" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B58" s="25"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="49"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="65"/>
     </row>
     <row r="59" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B59" s="25"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="49"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="65"/>
     </row>
     <row r="60" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B60" s="25"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="49"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="65"/>
     </row>
     <row r="61" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B61" s="25"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="49"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="65"/>
     </row>
     <row r="62" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B62" s="25"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="49"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="65"/>
     </row>
     <row r="63" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B63" s="25"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="49"/>
+      <c r="B63" s="62"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="65"/>
     </row>
     <row r="64" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B64" s="25"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="49"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="65"/>
     </row>
     <row r="65" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B65" s="25"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="49"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="65"/>
     </row>
     <row r="66" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B66" s="25"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="49"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="65"/>
     </row>
     <row r="67" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B67" s="25"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="49"/>
+      <c r="B67" s="62"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="65"/>
     </row>
     <row r="68" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B68" s="25"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="49"/>
+      <c r="B68" s="62"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="65"/>
     </row>
     <row r="69" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B69" s="25"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="49"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="65"/>
     </row>
     <row r="70" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B70" s="25"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="49"/>
+      <c r="B70" s="62"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="65"/>
     </row>
     <row r="71" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B71" s="25"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="49"/>
+      <c r="B71" s="62"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="65"/>
     </row>
     <row r="72" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B72" s="25"/>
-      <c r="C72" s="48"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="49"/>
+      <c r="B72" s="62"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="65"/>
     </row>
     <row r="73" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B73" s="25"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="51"/>
-      <c r="E73" s="49"/>
+      <c r="B73" s="62"/>
+      <c r="C73" s="63"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="65"/>
     </row>
     <row r="74" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B74" s="25"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="51"/>
-      <c r="E74" s="49"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="65"/>
     </row>
     <row r="75" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B75" s="25"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="51"/>
-      <c r="E75" s="49"/>
+      <c r="B75" s="62"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="65"/>
     </row>
     <row r="76" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B76" s="25"/>
-      <c r="C76" s="48"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="49"/>
+      <c r="B76" s="62"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="65"/>
     </row>
     <row r="77" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B77" s="25"/>
-      <c r="C77" s="48"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="49"/>
+      <c r="B77" s="62"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="65"/>
     </row>
     <row r="78" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B78" s="25"/>
-      <c r="C78" s="48"/>
-      <c r="D78" s="51"/>
-      <c r="E78" s="49"/>
+      <c r="B78" s="62"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="65"/>
     </row>
     <row r="79" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B79" s="25"/>
-      <c r="C79" s="48"/>
-      <c r="D79" s="51"/>
-      <c r="E79" s="49"/>
+      <c r="B79" s="62"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="65"/>
     </row>
     <row r="80" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B80" s="25"/>
-      <c r="C80" s="48"/>
-      <c r="D80" s="51"/>
-      <c r="E80" s="49"/>
+      <c r="B80" s="62"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="65"/>
     </row>
     <row r="81" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B81" s="25"/>
-      <c r="C81" s="48"/>
-      <c r="D81" s="51"/>
-      <c r="E81" s="49"/>
+      <c r="B81" s="62"/>
+      <c r="C81" s="63"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="65"/>
     </row>
     <row r="82" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B82" s="25"/>
-      <c r="C82" s="48"/>
-      <c r="D82" s="51"/>
-      <c r="E82" s="49"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="65"/>
     </row>
     <row r="83" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B83" s="25"/>
-      <c r="C83" s="48"/>
-      <c r="D83" s="51"/>
-      <c r="E83" s="49"/>
+      <c r="B83" s="62"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="65"/>
     </row>
     <row r="84" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B84" s="25"/>
-      <c r="C84" s="48"/>
-      <c r="D84" s="51"/>
-      <c r="E84" s="49"/>
+      <c r="B84" s="62"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="65"/>
     </row>
     <row r="85" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B85" s="25"/>
-      <c r="C85" s="48"/>
-      <c r="D85" s="51"/>
-      <c r="E85" s="49"/>
+      <c r="B85" s="62"/>
+      <c r="C85" s="63"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="65"/>
     </row>
     <row r="86" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B86" s="25"/>
-      <c r="C86" s="48"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="49"/>
+      <c r="B86" s="62"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="64"/>
+      <c r="E86" s="65"/>
     </row>
     <row r="87" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B87" s="25"/>
-      <c r="C87" s="48"/>
-      <c r="D87" s="51"/>
-      <c r="E87" s="49"/>
+      <c r="B87" s="62"/>
+      <c r="C87" s="63"/>
+      <c r="D87" s="64"/>
+      <c r="E87" s="65"/>
     </row>
     <row r="88" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B88" s="25"/>
-      <c r="C88" s="48"/>
-      <c r="D88" s="51"/>
-      <c r="E88" s="49"/>
+      <c r="B88" s="62"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="65"/>
     </row>
     <row r="89" spans="2:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C89" s="21"/>
-      <c r="D89" s="50"/>
-      <c r="E89" s="59">
+      <c r="D89" s="44"/>
+      <c r="E89" s="52" t="n">
         <f>SUM(E12:E88)</f>
-        <v>0</v>
-      </c>
-      <c r="F89" s="53"/>
-      <c r="G89" s="53"/>
+        <v>10624.0</v>
+      </c>
+      <c r="F89" s="46"/>
+      <c r="G89" s="46"/>
     </row>
     <row r="90" spans="2:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="22" t="s">
@@ -2449,11 +2608,11 @@
       </c>
       <c r="C90" s="21"/>
       <c r="D90" s="20"/>
-      <c r="E90" s="60">
+      <c r="E90" s="53">
         <v>123083.33</v>
       </c>
-      <c r="F90" s="53"/>
-      <c r="G90" s="53"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="46"/>
     </row>
     <row r="91" spans="2:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="19" t="s">
@@ -2461,25 +2620,25 @@
       </c>
       <c r="C91" s="18"/>
       <c r="D91" s="17"/>
-      <c r="E91" s="61">
+      <c r="E91" s="54" t="n">
         <f>E90-E89</f>
-        <v>123083.33</v>
-      </c>
-      <c r="F91" s="53"/>
-      <c r="G91" s="53"/>
+        <v>112459.33</v>
+      </c>
+      <c r="F91" s="46"/>
+      <c r="G91" s="46"/>
     </row>
     <row r="92" spans="2:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B92" s="90" t="s">
+      <c r="B92" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C92" s="91"/>
-      <c r="D92" s="92"/>
-      <c r="E92" s="60">
+      <c r="C92" s="75"/>
+      <c r="D92" s="76"/>
+      <c r="E92" s="53" t="n">
         <f>E91</f>
-        <v>123083.33</v>
-      </c>
-      <c r="F92" s="53"/>
-      <c r="G92" s="53"/>
+        <v>112459.33</v>
+      </c>
+      <c r="F92" s="46"/>
+      <c r="G92" s="46"/>
     </row>
     <row r="93" spans="2:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B93" s="16" t="s">
@@ -2492,229 +2651,229 @@
       <c r="E93" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F93" s="53"/>
-      <c r="G93" s="53"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="46"/>
     </row>
     <row r="94" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B94" s="93" t="s">
+      <c r="B94" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="94"/>
+      <c r="C94" s="78"/>
       <c r="D94" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E94" s="11"/>
-      <c r="F94" s="53"/>
-      <c r="G94" s="53"/>
+      <c r="F94" s="46"/>
+      <c r="G94" s="46"/>
     </row>
     <row r="95" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B95" s="84"/>
-      <c r="C95" s="85"/>
+      <c r="B95" s="68"/>
+      <c r="C95" s="69"/>
       <c r="D95" s="10"/>
       <c r="E95" s="9"/>
-      <c r="F95" s="53"/>
-      <c r="G95" s="53"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="46"/>
     </row>
     <row r="96" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B96" s="95" t="s">
-        <v>43</v>
-      </c>
-      <c r="C96" s="96"/>
-      <c r="D96" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="E96" s="62" t="s">
+      <c r="B96" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="C96" s="80"/>
+      <c r="D96" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="E96" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F96" s="53"/>
-      <c r="G96" s="53"/>
+      <c r="F96" s="46"/>
+      <c r="G96" s="46"/>
     </row>
     <row r="97" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B97" s="82" t="s">
+      <c r="B97" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C97" s="83"/>
+      <c r="C97" s="67"/>
       <c r="D97" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F97" s="53"/>
-      <c r="G97" s="53"/>
+      <c r="F97" s="46"/>
+      <c r="G97" s="46"/>
     </row>
     <row r="98" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B98" s="82" t="s">
+      <c r="B98" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C98" s="83"/>
+      <c r="C98" s="67"/>
       <c r="D98" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F98" s="53"/>
-      <c r="G98" s="53"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="46"/>
     </row>
     <row r="99" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B99" s="84"/>
-      <c r="C99" s="85"/>
+      <c r="B99" s="68"/>
+      <c r="C99" s="69"/>
       <c r="D99" s="6"/>
       <c r="E99" s="5"/>
-      <c r="F99" s="53"/>
-      <c r="G99" s="53"/>
+      <c r="F99" s="46"/>
+      <c r="G99" s="46"/>
     </row>
     <row r="100" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B100" s="84"/>
-      <c r="C100" s="85"/>
+      <c r="B100" s="68"/>
+      <c r="C100" s="69"/>
       <c r="D100" s="4"/>
       <c r="E100" s="3"/>
-      <c r="F100" s="53"/>
-      <c r="G100" s="53"/>
+      <c r="F100" s="46"/>
+      <c r="G100" s="46"/>
     </row>
     <row r="101" spans="2:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B101" s="86"/>
-      <c r="C101" s="87"/>
+      <c r="B101" s="70"/>
+      <c r="C101" s="71"/>
       <c r="D101" s="2"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="53"/>
-      <c r="G101" s="53"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="46"/>
     </row>
     <row r="102" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F102" s="53"/>
-      <c r="G102" s="53"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="46"/>
     </row>
     <row r="103" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F103" s="53"/>
-      <c r="G103" s="53"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="46"/>
     </row>
     <row r="104" spans="2:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F104" s="53"/>
-      <c r="G104" s="53"/>
+      <c r="F104" s="46"/>
+      <c r="G104" s="46"/>
     </row>
     <row r="105" spans="2:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D105" s="45"/>
-      <c r="F105" s="53"/>
-      <c r="G105" s="53"/>
+      <c r="D105" s="42"/>
+      <c r="F105" s="46"/>
+      <c r="G105" s="46"/>
     </row>
     <row r="106" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D106" s="38" t="s">
+      <c r="D106" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="F106" s="53"/>
-      <c r="G106" s="53"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="46"/>
     </row>
     <row r="107" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D107" s="38" t="s">
+      <c r="D107" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="F107" s="53"/>
-      <c r="G107" s="53"/>
+      <c r="F107" s="46"/>
+      <c r="G107" s="46"/>
     </row>
     <row r="108" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D108" s="38" t="s">
+      <c r="D108" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="F108" s="53"/>
-      <c r="G108" s="53"/>
+      <c r="F108" s="46"/>
+      <c r="G108" s="46"/>
     </row>
     <row r="109" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D109" s="38" t="s">
+      <c r="D109" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F109" s="53"/>
-      <c r="G109" s="53"/>
+      <c r="F109" s="46"/>
+      <c r="G109" s="46"/>
     </row>
     <row r="110" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D110" s="38" t="s">
+      <c r="D110" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F110" s="53"/>
-      <c r="G110" s="53"/>
+      <c r="F110" s="46"/>
+      <c r="G110" s="46"/>
     </row>
     <row r="111" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D111" s="38" t="s">
+      <c r="D111" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F111" s="53"/>
-      <c r="G111" s="53"/>
+      <c r="F111" s="46"/>
+      <c r="G111" s="46"/>
     </row>
     <row r="112" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D112" s="38" t="s">
+      <c r="D112" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="F112" s="53"/>
-      <c r="G112" s="53"/>
+      <c r="F112" s="46"/>
+      <c r="G112" s="46"/>
     </row>
     <row r="113" spans="4:7" ht="27" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D113" s="38" t="s">
+      <c r="D113" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F113" s="53"/>
-      <c r="G113" s="53"/>
+      <c r="F113" s="46"/>
+      <c r="G113" s="46"/>
     </row>
     <row r="114" spans="4:7" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D114" s="38" t="s">
+      <c r="D114" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F114" s="53"/>
-      <c r="G114" s="53"/>
+      <c r="F114" s="46"/>
+      <c r="G114" s="46"/>
     </row>
     <row r="115" spans="4:7" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D115" s="38" t="s">
+      <c r="D115" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="G115" s="53"/>
+      <c r="G115" s="46"/>
     </row>
     <row r="116" spans="4:7" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D116" s="38" t="s">
+      <c r="D116" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G116" s="53"/>
+      <c r="G116" s="46"/>
     </row>
     <row r="117" spans="4:7" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D117" s="38" t="s">
+      <c r="D117" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="G117" s="53"/>
+      <c r="G117" s="46"/>
     </row>
     <row r="118" spans="4:7" ht="38.15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D118" s="38" t="s">
+      <c r="D118" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="G118" s="53"/>
+      <c r="G118" s="46"/>
     </row>
     <row r="119" spans="4:7" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D119" s="38" t="s">
+      <c r="D119" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G119" s="53"/>
+      <c r="G119" s="46"/>
     </row>
     <row r="120" spans="4:7" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D120" s="38" t="s">
+      <c r="D120" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="F120" s="52"/>
-      <c r="G120" s="53"/>
+      <c r="F120" s="45"/>
+      <c r="G120" s="46"/>
     </row>
     <row r="121" spans="4:7" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F121" s="44"/>
-      <c r="G121" s="53"/>
+      <c r="F121" s="41"/>
+      <c r="G121" s="46"/>
     </row>
     <row r="122" spans="4:7" ht="35.15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F122" s="44"/>
-      <c r="G122" s="53"/>
+      <c r="F122" s="41"/>
+      <c r="G122" s="46"/>
     </row>
     <row r="123" spans="4:7" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F123" s="44"/>
-      <c r="G123" s="53"/>
+      <c r="F123" s="41"/>
+      <c r="G123" s="46"/>
     </row>
     <row r="124" spans="4:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F124" s="44"/>
+      <c r="F124" s="41"/>
     </row>
     <row r="125" spans="4:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F125" s="43"/>
+      <c r="F125" s="40"/>
     </row>
     <row r="126" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="127" spans="4:7" ht="33.65" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2735,98 +2894,98 @@
     <row r="138" spans="7:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="139" spans="7:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="140" spans="7:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="G140" s="40"/>
-      <c r="H140" s="41"/>
+      <c r="G140" s="37"/>
+      <c r="H140" s="38"/>
     </row>
     <row r="141" spans="7:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="G141" s="40"/>
-      <c r="H141" s="41"/>
+      <c r="G141" s="37"/>
+      <c r="H141" s="38"/>
     </row>
     <row r="142" spans="7:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="G142" s="40"/>
-      <c r="H142" s="41"/>
+      <c r="G142" s="37"/>
+      <c r="H142" s="38"/>
     </row>
     <row r="143" spans="7:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="G143" s="40"/>
-      <c r="H143" s="41"/>
+      <c r="G143" s="37"/>
+      <c r="H143" s="38"/>
     </row>
     <row r="144" spans="7:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="G144" s="40"/>
-      <c r="H144" s="41"/>
+      <c r="G144" s="37"/>
+      <c r="H144" s="38"/>
     </row>
     <row r="145" spans="6:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="G145" s="40"/>
-      <c r="H145" s="41"/>
+      <c r="G145" s="37"/>
+      <c r="H145" s="38"/>
     </row>
     <row r="146" spans="6:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="G146" s="40"/>
-      <c r="H146" s="41"/>
+      <c r="G146" s="37"/>
+      <c r="H146" s="38"/>
     </row>
     <row r="147" spans="6:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="G147" s="40"/>
-      <c r="H147" s="41"/>
+      <c r="G147" s="37"/>
+      <c r="H147" s="38"/>
     </row>
     <row r="148" spans="6:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="G148" s="40"/>
-      <c r="H148" s="41"/>
+      <c r="G148" s="37"/>
+      <c r="H148" s="38"/>
     </row>
     <row r="149" spans="6:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="G149" s="40"/>
-      <c r="H149" s="41"/>
+      <c r="G149" s="37"/>
+      <c r="H149" s="38"/>
     </row>
     <row r="150" spans="6:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="G150" s="40"/>
-      <c r="H150" s="41"/>
+      <c r="G150" s="37"/>
+      <c r="H150" s="38"/>
     </row>
     <row r="151" spans="6:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="G151" s="40"/>
-      <c r="H151" s="41"/>
+      <c r="G151" s="37"/>
+      <c r="H151" s="38"/>
     </row>
     <row r="152" spans="6:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="G152" s="40"/>
-      <c r="H152" s="41"/>
+      <c r="G152" s="37"/>
+      <c r="H152" s="38"/>
     </row>
     <row r="153" spans="6:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="G153" s="42"/>
-      <c r="H153" s="41"/>
+      <c r="G153" s="39"/>
+      <c r="H153" s="38"/>
     </row>
     <row r="154" spans="6:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="G154" s="42"/>
-      <c r="H154" s="41"/>
+      <c r="G154" s="39"/>
+      <c r="H154" s="38"/>
     </row>
     <row r="155" spans="6:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="G155" s="42"/>
-      <c r="H155" s="41"/>
+      <c r="G155" s="39"/>
+      <c r="H155" s="38"/>
     </row>
     <row r="156" spans="6:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="G156" s="42"/>
-      <c r="H156" s="41"/>
+      <c r="G156" s="39"/>
+      <c r="H156" s="38"/>
     </row>
     <row r="157" spans="6:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="G157" s="42"/>
-      <c r="H157" s="41"/>
+      <c r="G157" s="39"/>
+      <c r="H157" s="38"/>
     </row>
     <row r="158" spans="6:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="F158" s="26"/>
-      <c r="G158" s="42"/>
-      <c r="H158" s="41"/>
+      <c r="F158" s="25"/>
+      <c r="G158" s="39"/>
+      <c r="H158" s="38"/>
     </row>
     <row r="159" spans="6:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="F159" s="26"/>
-      <c r="G159" s="40"/>
-      <c r="H159" s="41"/>
+      <c r="F159" s="25"/>
+      <c r="G159" s="37"/>
+      <c r="H159" s="38"/>
     </row>
     <row r="160" spans="6:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="G160" s="40"/>
-      <c r="H160" s="41"/>
+      <c r="G160" s="37"/>
+      <c r="H160" s="38"/>
     </row>
     <row r="161" spans="7:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="G161" s="42"/>
-      <c r="H161" s="41"/>
+      <c r="G161" s="39"/>
+      <c r="H161" s="38"/>
     </row>
     <row r="162" spans="7:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="G162" s="42"/>
-      <c r="H162" s="41"/>
+      <c r="G162" s="39"/>
+      <c r="H162" s="38"/>
     </row>
     <row r="163" spans="7:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="164" spans="7:8" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2929,6 +3088,13 @@
     <row r="208" spans="8:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="B98:C98"/>
     <mergeCell ref="B99:C99"/>
     <mergeCell ref="B100:C100"/>
@@ -2939,13 +3105,6 @@
     <mergeCell ref="B95:C95"/>
     <mergeCell ref="B96:C96"/>
     <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.04" bottom="0.25" header="0.13" footer="0.3"/>
